--- a/website/decomposition/data/decomp.xlsx
+++ b/website/decomposition/data/decomp.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01710184064608133</v>
+        <v>0.01706966578727631</v>
       </c>
       <c r="C2">
-        <v>0.1683710224830235</v>
+        <v>0.1711113421306023</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>-0.2191703704920571</v>
+        <v>-0.220638841159972</v>
       </c>
       <c r="F2">
-        <v>-0.3463311104388858</v>
+        <v>-0.3490870887938672</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02394492503818668</v>
+        <v>0.02393601027981351</v>
       </c>
       <c r="C3">
-        <v>0.2236837189530427</v>
+        <v>0.2285411478262425</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>-0.1605433993478519</v>
+        <v>-0.1608559391161579</v>
       </c>
       <c r="F3">
-        <v>-0.3335600833917317</v>
+        <v>-0.3364422086745387</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +490,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.008087182121840564</v>
+        <v>0.008074158424662636</v>
       </c>
       <c r="C4">
-        <v>0.2783520083716</v>
+        <v>0.2783582902346908</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>-0.3057994407979305</v>
+        <v>-0.3069180953125147</v>
       </c>
       <c r="F4">
-        <v>-0.4632829044057911</v>
+        <v>-0.4641504252011667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.006127560310615232</v>
+        <v>0.006118015860444026</v>
       </c>
       <c r="C5">
-        <v>0.2921235693545521</v>
+        <v>0.3000307573035998</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>-0.3524589387757142</v>
+        <v>-0.3534669933100153</v>
       </c>
       <c r="F5">
-        <v>-0.5035973987889776</v>
+        <v>-0.5073847389904615</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,19 +530,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.00410445207670207</v>
+        <v>0.004092953922622433</v>
       </c>
       <c r="C6">
-        <v>0.1407675875472494</v>
+        <v>0.1427194243747092</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>-0.2755490672756852</v>
+        <v>-0.2775735720049434</v>
       </c>
       <c r="F6">
-        <v>-0.3685422968613431</v>
+        <v>-0.3713824594646207</v>
       </c>
     </row>
   </sheetData>

--- a/website/decomposition/data/decomp.xlsx
+++ b/website/decomposition/data/decomp.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01706966578727631</v>
+        <v>0.02163405647890304</v>
       </c>
       <c r="C2">
-        <v>0.1711113421306023</v>
+        <v>0.2142255256534589</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>-0.220638841159972</v>
+        <v>-0.02370734243873107</v>
       </c>
       <c r="F2">
-        <v>-0.3490870887938672</v>
+        <v>-0.2137715927454268</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02393601027981351</v>
+        <v>0.02915482074863152</v>
       </c>
       <c r="C3">
-        <v>0.2285411478262425</v>
+        <v>0.280254655085058</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>-0.1608559391161579</v>
+        <v>0.02210533672411397</v>
       </c>
       <c r="F3">
-        <v>-0.3364422086745387</v>
+        <v>-0.2244117121296368</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +490,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.008074158424662636</v>
+        <v>0.01016377288734049</v>
       </c>
       <c r="C4">
-        <v>0.2783582902346908</v>
+        <v>0.217514949307489</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>-0.3069180953125147</v>
+        <v>-0.127544752330796</v>
       </c>
       <c r="F4">
-        <v>-0.4641504252011667</v>
+        <v>-0.2917610783569214</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.006118015860444026</v>
+        <v>0.007933887836248155</v>
       </c>
       <c r="C5">
-        <v>0.3000307573035998</v>
+        <v>0.2885593678474192</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>-0.3534669933100153</v>
+        <v>-0.161577348784129</v>
       </c>
       <c r="F5">
-        <v>-0.5073847389904615</v>
+        <v>-0.3554904926367641</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,19 +530,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.004092953922622433</v>
+        <v>0.005528300439638589</v>
       </c>
       <c r="C6">
-        <v>0.1427194243747092</v>
+        <v>0.1227425593015761</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>-0.2775735720049434</v>
+        <v>-0.02422980327975355</v>
       </c>
       <c r="F6">
-        <v>-0.3713824594646207</v>
+        <v>-0.1358287006736738</v>
       </c>
     </row>
   </sheetData>

--- a/website/decomposition/data/decomp.xlsx
+++ b/website/decomposition/data/decomp.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02163405647890304</v>
+        <v>0.02307109610327041</v>
       </c>
       <c r="C2">
-        <v>0.2142255256534589</v>
+        <v>0.3604443217676563</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>-0.02370734243873107</v>
+        <v>-0.07459002288168737</v>
       </c>
       <c r="F2">
-        <v>-0.2137715927454268</v>
+        <v>-0.3367322230118077</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02915482074863152</v>
+        <v>0.03169487273235938</v>
       </c>
       <c r="C3">
-        <v>0.280254655085058</v>
+        <v>0.4075885594459285</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>0.02210533672411397</v>
+        <v>-0.01658510469625873</v>
       </c>
       <c r="F3">
-        <v>-0.2244117121296368</v>
+        <v>-0.3238649062720366</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,19 +490,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01016377288734049</v>
+        <v>0.0121595660493109</v>
       </c>
       <c r="C4">
-        <v>0.217514949307489</v>
+        <v>0.1900927626991886</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4">
-        <v>-0.127544752330796</v>
+        <v>-0.1938731713798718</v>
       </c>
       <c r="F4">
-        <v>-0.2917610783569214</v>
+        <v>-0.3328526250591923</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,19 +510,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.007933887836248155</v>
+        <v>0.009681903784583668</v>
       </c>
       <c r="C5">
-        <v>0.2885593678474192</v>
+        <v>0.5184523682173421</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>-0.161577348784129</v>
+        <v>-0.2630224168178961</v>
       </c>
       <c r="F5">
-        <v>-0.3554904926367641</v>
+        <v>-0.5210283215855083</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,19 +530,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.005528300439638589</v>
+        <v>0.006188276537269055</v>
       </c>
       <c r="C6">
-        <v>0.1227425593015761</v>
+        <v>0.2950428263510902</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
-        <v>-0.02422980327975355</v>
+        <v>-0.1425579662993008</v>
       </c>
       <c r="F6">
-        <v>-0.1358287006736738</v>
+        <v>-0.3426829292109816</v>
       </c>
     </row>
   </sheetData>
